--- a/report/results/results.xlsx
+++ b/report/results/results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\university\year5\courses\Web Science\AE\workspace\WebScienceAE\report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\university\year5\courses\Web Science\AE\workspace\WebScienceAE\report\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Data Set/Measures</t>
   </si>
@@ -50,31 +50,16 @@
     <t>7 Days - Baseline</t>
   </si>
   <si>
-    <t>7 Days - Merged - 15 mins</t>
-  </si>
-  <si>
     <t>1 Day - Filtered - 9 tweets</t>
   </si>
   <si>
     <t>7 Days - Filtered - 11 tweets</t>
   </si>
   <si>
-    <t>1 Day - Merged - 7 mins</t>
-  </si>
-  <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>Running Total</t>
-  </si>
-  <si>
-    <t>Count</t>
-  </si>
-  <si>
-    <t>Column1</t>
+    <t>1 Day - Merged - 4 hours</t>
+  </si>
+  <si>
+    <t>7 Days - Merged - 2 hours</t>
   </si>
 </sst>
 </file>
@@ -163,6 +148,24 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <strike val="0"/>
@@ -184,24 +187,6 @@
       </fill>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -216,15 +201,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F7" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F7" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A1:F7"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Data Set/Measures" dataDxfId="7"/>
-    <tableColumn id="2" name="Events Detected" dataDxfId="6"/>
-    <tableColumn id="3" name="Total Clusters" dataDxfId="5"/>
-    <tableColumn id="4" name="F-Measure" dataDxfId="4"/>
-    <tableColumn id="5" name="Precision" dataDxfId="3"/>
-    <tableColumn id="6" name="Recall" dataDxfId="2"/>
+    <tableColumn id="1" name="Data Set/Measures" dataDxfId="5"/>
+    <tableColumn id="2" name="Events Detected" dataDxfId="4"/>
+    <tableColumn id="3" name="Total Clusters" dataDxfId="3"/>
+    <tableColumn id="4" name="F-Measure" dataDxfId="2"/>
+    <tableColumn id="5" name="Precision" dataDxfId="1"/>
+    <tableColumn id="6" name="Recall" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -530,7 +515,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -586,7 +571,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="3">
         <v>19</v>
@@ -606,22 +591,22 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="5">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4" s="5">
-        <v>288</v>
+        <v>4622</v>
       </c>
       <c r="D4" s="5">
-        <v>5.8999999999999997E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="E4" s="5">
-        <v>0.17699999999999999</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="F4" s="5">
-        <v>3.5999999999999997E-2</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -646,7 +631,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1">
         <v>92</v>
@@ -666,22 +651,22 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7" s="3">
         <v>94</v>
       </c>
       <c r="C7" s="3">
-        <v>1052</v>
+        <v>30624</v>
       </c>
       <c r="D7" s="3">
-        <v>0.23499999999999999</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="E7" s="3">
-        <v>0.318</v>
+        <v>0.02</v>
       </c>
       <c r="F7" s="3">
-        <v>0.186</v>
+        <v>0.221</v>
       </c>
     </row>
   </sheetData>
